--- a/src/test/resources/data/loginData.xlsx
+++ b/src/test/resources/data/loginData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\WorkSpaceSDET\skySchoolingPOM\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddi\workspace-Playwright\skyschool\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE11FEEE-6FAD-409F-BE95-1B4F2D8BDC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="4680" windowWidth="17580" windowHeight="10920" xr2:uid="{12BAAE7C-C766-41DD-87EE-4EB7D53174BD}"/>
+    <workbookView xWindow="8940" yWindow="4680" windowWidth="17580" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="loginAuth" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,16 +40,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>testpilot@gmail.com</t>
+    <t>UserId</t>
   </si>
   <si>
-    <t>UserId</t>
+    <t>david@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9643D235-248D-4E4F-AD2C-4ED997A7530A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +420,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -429,7 +428,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1234</v>
@@ -437,7 +436,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B0C4D382-99DA-4472-A952-7C52EE417757}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
